--- a/explicacion-suma-recursiva.xlsx
+++ b/explicacion-suma-recursiva.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\clase05-2bim-Leonardochj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BB1B22-F3C9-4B62-8164-8C844A2A6F77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99426ABC-85DF-42E0-A050-5CE59F502E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="5" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="6" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="32">
   <si>
     <t>obtenerSuma</t>
   </si>
@@ -41,15 +43,9 @@
     <t>'b=3</t>
   </si>
   <si>
-    <t>B==0</t>
-  </si>
-  <si>
     <t>3==0</t>
   </si>
   <si>
-    <t>A==0</t>
-  </si>
-  <si>
     <t>10==0</t>
   </si>
   <si>
@@ -93,6 +89,42 @@
   </si>
   <si>
     <t>5==0</t>
+  </si>
+  <si>
+    <t>b==0</t>
+  </si>
+  <si>
+    <t>a==0</t>
+  </si>
+  <si>
+    <t>a =0</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>b=2</t>
+  </si>
+  <si>
+    <t>b=3</t>
+  </si>
+  <si>
+    <t>a =3</t>
+  </si>
+  <si>
+    <t>b=5</t>
+  </si>
+  <si>
+    <t>b=1</t>
+  </si>
+  <si>
+    <t>b=0</t>
+  </si>
+  <si>
+    <t>a =6</t>
+  </si>
+  <si>
+    <t>6==0</t>
   </si>
 </sst>
 </file>
@@ -177,9 +209,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -192,6 +221,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -586,16 +618,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>13</v>
       </c>
     </row>
@@ -603,10 +635,10 @@
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H4" t="s">
@@ -614,300 +646,300 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>4</v>
+      <c r="F6" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6" t="b">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>6</v>
+      <c r="F8" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="6" t="b">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="13">
+        <v>12</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="M11" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>10</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="1">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>4</v>
+      <c r="F16" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="6" t="b">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>6</v>
+      <c r="F18" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="6" t="b">
+        <v>5</v>
+      </c>
+      <c r="G19" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>10</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="13">
+        <v>11</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="M21" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
         <v>10</v>
       </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
-        <v>4</v>
+      <c r="F27" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="6" t="b">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
-        <v>6</v>
+      <c r="F29" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="6" t="b">
+        <v>5</v>
+      </c>
+      <c r="G30" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>10</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="13">
+        <v>10</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="M32" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
         <v>10</v>
       </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G32" s="8">
-        <v>1</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2">
-        <v>10</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="E35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>15</v>
+      <c r="H35" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="10"/>
+      <c r="F36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="11">
+        <v>6</v>
+      </c>
+      <c r="G38" s="10">
         <v>10</v>
       </c>
     </row>
@@ -927,317 +959,1190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A13211-4642-4A9C-BFEF-E1BFB29004C5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83D81BF-1924-47F8-B611-2A652D62B332}">
+  <dimension ref="A3:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793B6ACA-B0E3-44AE-AC46-4EE9B4B1A130}">
-  <dimension ref="A3:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B90A53-395A-4833-941C-FF81FA1BA245}">
+  <dimension ref="A3:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="M3" s="3">
-        <v>13</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>19</v>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>4</v>
+      <c r="F6" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="6" t="b">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>6</v>
+      <c r="F8" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6" t="b">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="13">
         <v>8</v>
       </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="7">
         <v>9</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="K10" s="2">
+      <c r="C13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="1">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="M13" s="3">
-        <v>13</v>
-      </c>
-    </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>19</v>
+      <c r="E14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>4</v>
+      <c r="F16" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="6" t="b">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>6</v>
+      <c r="F18" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="6" t="b">
+        <v>19</v>
+      </c>
+      <c r="G19" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="5" t="s">
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="13">
+        <v>7</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="M21" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
         <v>5</v>
       </c>
-      <c r="K20" s="2">
+      <c r="C23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="1">
-        <v>12</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3">
-        <v>13</v>
-      </c>
-    </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
-        <v>4</v>
+      <c r="E24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
+      <c r="F27" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="G27" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
+      <c r="F29" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F30" s="5" t="s">
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="13">
+        <v>6</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="M32" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="K30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G31" s="8">
-        <v>1</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F38" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="8">
+      <c r="G39" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F40" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>5</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G43" s="7">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="13">
+        <v>5</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F47" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="10">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I43:K43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E5B657-66BC-4D8D-AA66-4E441AA84ACA}">
+  <dimension ref="A3:L60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="13">
+        <v>7</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="13">
+        <v>6</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="13">
+        <v>5</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E38" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E40" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="13">
+        <v>4</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E50" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="13">
+        <v>3</v>
+      </c>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="10">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H32:J32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12015EB-0443-47E0-83A2-FFD4C4761E59}">
+  <dimension ref="A3:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="13">
+        <v>6</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="10">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
